--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-02_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-02_end.xlsx
@@ -708,11 +708,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]   Of the things that Rhodes Island has requested, there is one "item" that we are unwilling to exchange based upon what has been offered.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]   The temporary defense cooperation that you're providing is far from equal value. As things stand, your "asking price" is a bit too high.
+    <t xml:space="preserve">[name="Wei Yenwu"]   Of the things that Rhodes Island has requested, there is one 'item' that we are unwilling to exchange based upon what has been offered.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]   The temporary defense cooperation that you're providing is far from equal value. As things stand, your 'asking price' is a bit too high.
 </t>
   </si>
   <si>
@@ -888,7 +888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  "Any interpretation of the clauses must be agreed upon by both parties." Is this acceptable?
+    <t xml:space="preserve">[name="Amiya"]  'Any interpretation of the clauses must be agreed upon by both parties.' Is this acceptable?
 </t>
   </si>
   <si>
